--- a/data/trans_bre/P23_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_2_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,9</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,11</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>8,51</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>2,65</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>32,81%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>39,02%</t>
+          <t>34,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>63,89%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>45,18%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>38,17%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10,89%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14,09%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 11,14</t>
+          <t>1,63; 11,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,15; 13,97</t>
+          <t>5,32; 14,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 10,51</t>
+          <t>1,71; 10,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 6,89</t>
+          <t>2,11; 14,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 65,98</t>
+          <t>-1,71; 7,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,24; 102,45</t>
+          <t>-0,92; 8,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,63; 80,7</t>
+          <t>7,22; 69,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 30,35</t>
+          <t>27,09; 109,08</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>7,91; 82,63</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7,87; 72,92</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-6,51; 35,29</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,96; 34,47</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,55</t>
+          <t>8,66</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,52</t>
+          <t>10,16</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>7,61</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>50,02%</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>58,59%</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>43,39%</t>
+          <t>50,45%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>56,2%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>47,33%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>30,62%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,3%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-6,66%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,25; 14,68</t>
+          <t>2,49; 14,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 15,83</t>
+          <t>4,73; 15,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 12,23</t>
+          <t>1,48; 12,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 9,99</t>
+          <t>0,84; 13,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,75; 104,89</t>
+          <t>-7,06; 9,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,73; 105,23</t>
+          <t>-10,41; 7,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,48; 90,86</t>
+          <t>11,05; 99,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,48; 56,94</t>
+          <t>20,17; 101,27</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5,14; 93,72</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3,01; 64,34</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-26,0; 48,51</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-31,35; 30,96</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-8,39</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>9,68%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,49%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>14,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-3,31%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14,12%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-22,62%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 13,03</t>
+          <t>-7,67; 13,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 8,07</t>
+          <t>-10,3; 8,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 12,01</t>
+          <t>-11,56; 11,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-23,79; 5,09</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-32,34; 74,13</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,66; 44,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-42,14; 94,44</t>
+          <t>-24,97; 81,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-37,38; 50,56</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-41,27; 95,18</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-52,09; 19,31</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,84</t>
+          <t>8,82</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>6,13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>2,38</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>35,42%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>50,32%</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>36,27%</t>
+          <t>37,26%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>50,26%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>41,35%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>24,12%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9,95%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9,1%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 10,15</t>
+          <t>3,23; 10,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,5; 11,96</t>
+          <t>5,77; 12,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 9,02</t>
+          <t>3,32; 9,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 6,35</t>
+          <t>1,41; 10,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,22; 58,94</t>
+          <t>-1,44; 6,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,55; 76,68</t>
+          <t>-1,27; 7,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,45; 62,17</t>
+          <t>15,21; 62,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 29,56</t>
+          <t>29,57; 77,21</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17,62; 69,45</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>4,56; 46,24</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-5,71; 29,19</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-4,82; 27,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P23_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_2_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,59</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10,13</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,89</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,51</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,78</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>34,66%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>63,89%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>45,18%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>38,17%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>10,89%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>14,09%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.095699979425265</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>10.20808837862659</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.630632424838651</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>8.121016815869996</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>2.652127287010839</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>3.898144907343393</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.3075693295017004</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.639937065105721</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.4312420836555936</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.3584662457586948</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.1088605958480074</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.1455605900863212</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,63; 11,37</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>5,32; 14,5</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1,71; 10,94</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,11; 14,03</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,71; 7,76</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-0,92; 8,45</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>7,22; 69,5</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>27,09; 109,08</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>7,91; 82,63</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>7,87; 72,92</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-6,51; 35,29</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-2,96; 34,47</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.4711104150226413</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>5.107252558108121</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.297097653713079</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>1.639352597128112</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-1.713784559516116</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.8344902922243285</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.01564046773759994</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.2707858807538547</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.06543272064218711</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.06018156907300116</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.0651427328422607</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.0250783222040634</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.06288569219827</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>14.62716150981171</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.65109927555037</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>13.67306202462862</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>7.762199521850116</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>8.490312732762714</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.6712745807076383</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.097084632384632</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.8066058929140271</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.7041664310842648</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.3529477858187754</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.3478880979997501</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>8,66</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10,16</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,61</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,8</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-1,93</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>50,45%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>56,2%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>47,33%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>30,62%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>5,3%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-6,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,49; 14,38</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>4,73; 15,47</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 12,78</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 13,95</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-7,06; 9,1</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-10,41; 7,37</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>11,05; 99,92</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>20,17; 101,27</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>5,14; 93,72</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>3,01; 64,34</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-26,0; 48,51</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-31,35; 30,96</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.935500948658969</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>10.46307065177457</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.085752286533864</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>7.426789519635396</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.195505405290931</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-1.690589920426561</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.4543688476171325</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.5809856203886044</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.4315357313895515</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.2912272911060034</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.05302001773564669</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>-0.05859126361098239</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,37</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,74</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,67</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-8,39</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>14,43%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-3,31%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>14,12%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-22,62%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1.555231899186448</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>4.869551247598755</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.6704278726117096</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.6172927527011759</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-7.056998196936067</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-10.14770371011019</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.05678134256858591</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.2133482831543413</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.0105535389432609</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.02022789146007978</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.2600139142973218</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.311401514271169</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,67; 13,5</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,3; 8,25</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,56; 11,83</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-23,79; 5,09</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-24,97; 81,07</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-37,38; 50,56</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-41,27; 95,18</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-52,09; 19,31</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>13.84274923639582</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>15.68864863400771</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.18176911032095</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>13.55020976581973</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>9.099852794970095</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>7.911263800680681</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.9476764651820101</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.0411064671461</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.8763291493934343</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.6252687419063022</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.4850811185695964</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.3310483126317934</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>7,01</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>8,82</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,62</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,13</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,38</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>2,49</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>37,26%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>50,26%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>41,35%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>24,12%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>9,95%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>9,1%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>2.548108854760672</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.6276915664106569</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.018626171745749</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-9.024198057065668</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.1075619534956596</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.02777532792464095</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.1025774612169584</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.2455689154672233</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>3,23; 10,77</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5,77; 12,23</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,32; 9,75</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,41; 10,58</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-1,44; 6,29</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-1,27; 7,0</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>15,21; 62,38</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>29,57; 77,21</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>17,62; 69,45</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>4,56; 46,24</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-5,71; 29,19</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-4,82; 27,26</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.639425078847845</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.987482684926016</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-12.60059858793026</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-24.9571457419007</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.2784456158376432</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.3656644591520864</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4204179679612802</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.5331160388100223</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.06992344508561</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.733890728254384</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.49341513294048</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.131312031051801</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.7712621492478724</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.5129615003568621</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.899170034675692</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.1730210187173949</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>6.405485962984129</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>8.990160358986563</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.214289652220273</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5.7246645199718</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>2.380447656682641</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>2.633281165471418</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.3311009617834514</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.5113176963361852</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.3807244904197727</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.2241690856097526</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.09947930319521635</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.09655446111391221</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.481015015756771</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>5.793259758805131</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2.725885216136424</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.9843407397331468</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-1.437701593989012</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-1.190998464739184</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.110634528660773</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2956290438771051</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.1464514013982533</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.03169597825849951</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.05709353671062509</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.04325902635901301</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>10.35300658234565</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.46854776668988</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.420536454053146</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>10.04154636938564</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>6.288234851220461</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>7.088581259974289</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.5897826149176418</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.785858796304721</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.6608024343571238</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.4378143503413513</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.2918904815314591</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.2842724100728819</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
